--- a/public/import/reporforium.xlsx
+++ b/public/import/reporforium.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakky\Downloads\akta\akta\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E554CD-0C05-4B5B-84B6-C0C79ABD2BE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EBC44E-4202-48C0-B31D-AA976A061849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{995F4D5A-BA8D-4227-9043-0DAB9C7FA8C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>OFF</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>sadsad</t>
-  </si>
-  <si>
-    <t>Jam</t>
   </si>
   <si>
     <t>Password</t>
@@ -128,9 +125,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -448,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FBE81F-02B9-4416-9798-4737D19AE0FA}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,55 +461,49 @@
     <col min="8" max="8" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1211</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.52833333333333332</v>
-      </c>
-      <c r="B2">
-        <v>1211</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44197</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/public/import/reporforium.xlsx
+++ b/public/import/reporforium.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakky\Downloads\akta\akta\public\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zakky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EBC44E-4202-48C0-B31D-AA976A061849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614D14A-055F-45BF-A300-A4E3179E2DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{995F4D5A-BA8D-4227-9043-0DAB9C7FA8C6}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>Sifat Akta</t>
   </si>
   <si>
-    <t>SK Kemenhumkam</t>
-  </si>
-  <si>
     <t>Nama Penghadap</t>
   </si>
   <si>
     <t>zakky taufiqurrohman,andi,kiki,paijo,imin</t>
+  </si>
+  <si>
+    <t>SK Kemenhumham</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="41.7109375" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" customWidth="1"/>
@@ -475,10 +475,10 @@
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1211</v>
+        <v>12323</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
